--- a/dev/robotScripts/firstProj/Test+Cases.xlsx
+++ b/dev/robotScripts/firstProj/Test+Cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27598C0-79E2-4902-8399-FDFAF878E0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB8F64B-6C4F-4743-9B2B-47111897591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2460" windowWidth="28890" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRM Tests" sheetId="1" r:id="rId1"/>
@@ -670,9 +670,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -710,9 +710,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,26 +745,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,26 +780,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -993,8 +959,8 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,24 +2364,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="C132:D132"/>
@@ -2430,6 +2378,24 @@
     <mergeCell ref="C120:D120"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
